--- a/Test Bench/Test-Bench.xlsx
+++ b/Test Bench/Test-Bench.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Downloads\GIT\2024-2025-4GP-oetham-axellgp\Test Bench\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheo\Downloads\GIT\2024-2025-4GP-oetham-axellgp\Test Bench\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF825D3C-86F2-4457-A675-422EF8ED121E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01B0D20-9DAC-48B2-8062-D8C1D00C2E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="18264" xr2:uid="{3B748F38-0158-49F5-AB1C-817470F7F4AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{3B748F38-0158-49F5-AB1C-817470F7F4AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="18">
   <si>
     <t>V0</t>
   </si>
@@ -56,22 +56,7 @@
     <t>HB Tension</t>
   </si>
   <si>
-    <t>HB Compression</t>
-  </si>
-  <si>
-    <t>4B Compression</t>
-  </si>
-  <si>
-    <t>5B Compression</t>
-  </si>
-  <si>
     <t>Pot pos</t>
-  </si>
-  <si>
-    <t>6B Compression</t>
-  </si>
-  <si>
-    <t>F Compression</t>
   </si>
   <si>
     <t>5B Tension</t>
@@ -82,12 +67,36 @@
   <si>
     <t>F Tension</t>
   </si>
+  <si>
+    <t xml:space="preserve">4B </t>
+  </si>
+  <si>
+    <t>e (paper)</t>
+  </si>
+  <si>
+    <t>5B</t>
+  </si>
+  <si>
+    <t>Compression</t>
+  </si>
+  <si>
+    <t>6B</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HB </t>
+  </si>
+  <si>
+    <t>Tension</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,8 +104,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,12 +128,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -137,15 +166,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -324,7 +511,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$B$10</c:f>
+              <c:f>Sheet1!$D$6:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -462,7 +649,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$B$10</c:f>
+              <c:f>Sheet1!$D$6:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -596,7 +783,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$B$10</c:f>
+              <c:f>Sheet1!$D$6:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -730,7 +917,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$B$10</c:f>
+              <c:f>Sheet1!$D$6:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -829,7 +1016,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$7:$B$10</c15:sqref>
+                          <c15:sqref>Sheet1!$D$7:$D$10</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1198,11 +1385,11 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="accent2">
+          <a:lumMod val="40000"/>
+          <a:lumOff val="60000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -1316,7 +1503,7 @@
             <c:v>5B</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1388,7 +1575,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$21:$B$25</c:f>
+              <c:f>Sheet1!$D$21:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1412,7 +1599,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$21:$E$25</c:f>
+              <c:f>Sheet1!$I$21:$I$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1526,7 +1713,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$21:$B$25</c:f>
+              <c:f>Sheet1!$D$21:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1550,7 +1737,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$21:$H$25</c:f>
+              <c:f>Sheet1!$L$21:$L$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1658,7 +1845,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$21:$B$25</c:f>
+              <c:f>Sheet1!$D$21:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1682,7 +1869,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$21:$K$25</c:f>
+              <c:f>Sheet1!$O$21:$O$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1790,7 +1977,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$21:$B$25</c:f>
+              <c:f>Sheet1!$D$21:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1814,7 +2001,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$21:$N$25</c:f>
+              <c:f>Sheet1!$R$21:$R$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2217,11 +2404,11 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="accent6">
+          <a:lumMod val="40000"/>
+          <a:lumOff val="60000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -3362,16 +3549,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>599326</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>33010</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9683</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>14867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>23475</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>51369</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>250261</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>33226</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3398,16 +3585,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>256990</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>64021</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>465632</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>519</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>443960</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>89885</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>443959</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>26383</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3752,839 +3939,827 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C84352-584F-4689-8EB2-85A85752C7CE}">
-  <dimension ref="A4:U28"/>
+  <dimension ref="A3:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G26" zoomScale="105" workbookViewId="0">
-      <selection activeCell="U36" sqref="U36"/>
+    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="D4" t="s">
+    <row r="3" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="G4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+    </row>
+    <row r="5" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="W5" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="3"/>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="4">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C7" s="5">
         <v>5</v>
       </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" t="s">
-        <v>11</v>
-      </c>
-      <c r="S4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3">
-        <v>0</v>
-      </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <f>A14/A7</f>
+      <c r="D7" s="6">
+        <f>W6/C7</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D7">
-        <v>1.25</v>
-      </c>
-      <c r="E7">
-        <v>0.82</v>
-      </c>
-      <c r="F7">
-        <f>ABS(D7-E7)/D7</f>
-        <v>0.34400000000000003</v>
-      </c>
-      <c r="G7">
+      <c r="F7" s="20"/>
+      <c r="G7" s="5">
         <v>3.1</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="11">
         <v>3.11</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="6">
         <f>ABS(G7-H7)/G7</f>
         <v>3.2258064516128343E-3</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="5">
         <v>3.35</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="11">
         <v>3.58</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="6">
         <f>ABS(J7-K7)/J7</f>
         <v>6.8656716417910435E-2</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="5">
         <v>3.61</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="11">
         <v>3.7</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="6">
         <f>ABS(M7-N7)/M7</f>
         <v>2.4930747922437758E-2</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="5">
         <v>1.06</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="11">
         <v>1.3</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="6">
         <f>ABS(P7-Q7)/P7</f>
         <v>0.22641509433962262</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S7" s="5">
         <v>2.74</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T7" s="11">
         <v>2.8</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="6">
         <f>ABS(S7-T7)/S7</f>
         <v>2.1897810218977957E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C8" s="5">
         <v>4</v>
       </c>
-      <c r="B8">
-        <f>A14/4</f>
+      <c r="D8" s="6">
+        <f>W6/4</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D8">
-        <v>1.25</v>
-      </c>
-      <c r="E8">
-        <v>0.87</v>
-      </c>
-      <c r="F8">
-        <f t="shared" ref="F8:F10" si="0">ABS(D8-E8)/D8</f>
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="G8">
+      <c r="F8" s="20"/>
+      <c r="G8" s="5">
         <v>3.1</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="11">
         <v>3.25</v>
       </c>
-      <c r="I8">
-        <f t="shared" ref="I8:I10" si="1">ABS(G8-H8)/G8</f>
+      <c r="I8" s="6">
+        <f t="shared" ref="I8:I10" si="0">ABS(G8-H8)/G8</f>
         <v>4.8387096774193519E-2</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="5">
         <v>3.22</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="11">
         <v>3.63</v>
       </c>
-      <c r="L8" s="2">
-        <f t="shared" ref="L8:L10" si="2">ABS(J8-K8)/J8</f>
+      <c r="L8" s="6">
+        <f t="shared" ref="L8:L10" si="1">ABS(J8-K8)/J8</f>
         <v>0.12732919254658376</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="5">
         <v>3.33</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="11">
         <v>3.59</v>
       </c>
-      <c r="O8" s="3">
-        <f t="shared" ref="O8:O10" si="3">ABS(M8-N8)/M8</f>
+      <c r="O8" s="6">
+        <f t="shared" ref="O8:O10" si="2">ABS(M8-N8)/M8</f>
         <v>7.8078078078078011E-2</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="5">
         <v>0.9</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="11">
         <v>1.28</v>
       </c>
-      <c r="R8">
-        <f t="shared" ref="R8:R10" si="4">ABS(P8-Q8)/P8</f>
+      <c r="R8" s="6">
+        <f t="shared" ref="R8:R10" si="3">ABS(P8-Q8)/P8</f>
         <v>0.42222222222222222</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="5">
         <v>2.57</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="11">
         <v>2.88</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="6">
         <f>ABS(S8-T8)/S8</f>
         <v>0.12062256809338524</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C9" s="5">
         <v>3</v>
       </c>
-      <c r="B9">
-        <f>A14/A9</f>
+      <c r="D9" s="6">
+        <f>W6/C9</f>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="D9">
-        <v>1.25</v>
-      </c>
-      <c r="E9">
-        <v>0.92</v>
-      </c>
-      <c r="F9">
+      <c r="F9" s="20"/>
+      <c r="G9" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="H9" s="11">
+        <v>3.35</v>
+      </c>
+      <c r="I9" s="6">
         <f t="shared" si="0"/>
-        <v>0.26399999999999996</v>
-      </c>
-      <c r="G9">
-        <v>3.1</v>
-      </c>
-      <c r="H9">
-        <v>3.35</v>
-      </c>
-      <c r="I9">
+        <v>8.0645161290322578E-2</v>
+      </c>
+      <c r="J9" s="5">
+        <v>3.22</v>
+      </c>
+      <c r="K9" s="11">
+        <v>3.84</v>
+      </c>
+      <c r="L9" s="6">
         <f t="shared" si="1"/>
-        <v>8.0645161290322578E-2</v>
-      </c>
-      <c r="J9" s="2">
-        <v>3.22</v>
-      </c>
-      <c r="K9" s="2">
-        <v>3.84</v>
-      </c>
-      <c r="L9" s="2">
+        <v>0.19254658385093157</v>
+      </c>
+      <c r="M9" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="N9" s="11">
+        <v>3.51</v>
+      </c>
+      <c r="O9" s="6">
         <f t="shared" si="2"/>
-        <v>0.19254658385093157</v>
-      </c>
-      <c r="M9" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="N9" s="3">
-        <v>3.51</v>
-      </c>
-      <c r="O9" s="3">
+        <v>6.363636363636363E-2</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>1.35</v>
+      </c>
+      <c r="R9" s="6">
         <f t="shared" si="3"/>
-        <v>6.363636363636363E-2</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0.93</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>1.35</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="4"/>
         <v>0.45161290322580649</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="5">
         <v>2.4300000000000002</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="11">
         <v>2.76</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="6">
         <f>ABS(S9-T9)/S9</f>
         <v>0.1358024691358023</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="7">
         <v>2</v>
       </c>
-      <c r="B10">
-        <f>A14/A10</f>
+      <c r="D10" s="8">
+        <f>W6/C10</f>
         <v>0.01</v>
       </c>
-      <c r="D10">
-        <v>1.25</v>
-      </c>
-      <c r="E10">
-        <v>0.96</v>
-      </c>
-      <c r="F10">
+      <c r="F10" s="21"/>
+      <c r="G10" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3.41</v>
+      </c>
+      <c r="I10" s="8">
         <f t="shared" si="0"/>
-        <v>0.23200000000000004</v>
-      </c>
-      <c r="G10">
-        <v>3.1</v>
-      </c>
-      <c r="H10">
-        <v>3.41</v>
-      </c>
-      <c r="I10">
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="J10" s="7">
+        <v>2.83</v>
+      </c>
+      <c r="K10" s="1">
+        <v>3.54</v>
+      </c>
+      <c r="L10" s="8">
         <f t="shared" si="1"/>
-        <v>0.10000000000000002</v>
-      </c>
-      <c r="J10" s="2">
-        <v>2.83</v>
-      </c>
-      <c r="K10" s="2">
-        <v>3.54</v>
-      </c>
-      <c r="L10" s="2">
+        <v>0.25088339222614842</v>
+      </c>
+      <c r="M10" s="7">
+        <v>3.15</v>
+      </c>
+      <c r="N10" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="O10" s="8">
         <f t="shared" si="2"/>
-        <v>0.25088339222614842</v>
-      </c>
-      <c r="M10" s="3">
-        <v>3.15</v>
-      </c>
-      <c r="N10" s="3">
-        <v>3.27</v>
-      </c>
-      <c r="O10" s="3">
+        <v>3.8095238095238133E-2</v>
+      </c>
+      <c r="P10" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="R10" s="8">
         <f t="shared" si="3"/>
-        <v>3.8095238095238133E-2</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0.72</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>1.08</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="4"/>
         <v>0.50000000000000011</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="7">
         <v>2.38</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="1">
         <v>2.85</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="8">
         <f>ABS(S10-T10)/S10</f>
         <v>0.19747899159663876</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="J11" t="s">
+    <row r="11" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="14">
+        <v>35</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="14">
+        <v>100</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="14">
+        <v>150</v>
+      </c>
+      <c r="O11" s="9"/>
+      <c r="P11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>10</v>
+      </c>
+      <c r="S11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="T11" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="G19" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="2">
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+    </row>
+    <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="R20" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="W20" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="3"/>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="4">
+        <v>0</v>
+      </c>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="W21" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C22" s="5">
+        <v>5</v>
+      </c>
+      <c r="D22" s="6">
+        <f>$W$21/C22</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F22" s="23"/>
+      <c r="G22" s="5">
+        <v>4.51</v>
+      </c>
+      <c r="H22" s="11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I22" s="6">
+        <f>ABS(G22-H22)/G22</f>
+        <v>9.0909090909090939E-2</v>
+      </c>
+      <c r="J22" s="5">
+        <v>3.71</v>
+      </c>
+      <c r="K22" s="11">
+        <v>3.24</v>
+      </c>
+      <c r="L22" s="6">
+        <f>ABS(J22-K22)/J22</f>
+        <v>0.12668463611859831</v>
+      </c>
+      <c r="M22" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="N22" s="11">
+        <v>2.16</v>
+      </c>
+      <c r="O22" s="6">
+        <f>ABS(M22-N22)/M22</f>
+        <v>0.22857142857142848</v>
+      </c>
+      <c r="P22" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>3.17</v>
+      </c>
+      <c r="R22" s="6">
+        <f>ABS(P22-Q22)/P22</f>
+        <v>0.14324324324324331</v>
+      </c>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C23" s="5">
+        <v>4</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" ref="D23:D25" si="4">$W$21/C23</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="5">
+        <v>4.37</v>
+      </c>
+      <c r="H23" s="11">
+        <v>3.96</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" ref="I23:I26" si="5">ABS(G23-H23)/G23</f>
+        <v>9.3821510297482869E-2</v>
+      </c>
+      <c r="J23" s="5">
+        <v>3.53</v>
+      </c>
+      <c r="K23" s="11">
+        <v>3.01</v>
+      </c>
+      <c r="L23" s="6">
+        <f t="shared" ref="L23:L26" si="6">ABS(J23-K23)/J23</f>
+        <v>0.1473087818696884</v>
+      </c>
+      <c r="M23" s="5">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="N23" s="11">
+        <v>1.57</v>
+      </c>
+      <c r="O23" s="6">
+        <f t="shared" ref="O23:O26" si="7">ABS(M23-N23)/M23</f>
+        <v>0.23414634146341454</v>
+      </c>
+      <c r="P23" s="5">
+        <v>3.51</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>2.98</v>
+      </c>
+      <c r="R23" s="6">
+        <f t="shared" ref="R23:R26" si="8">ABS(P23-Q23)/P23</f>
+        <v>0.15099715099715094</v>
+      </c>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C24" s="5">
+        <v>3</v>
+      </c>
+      <c r="D24" s="6">
+        <f t="shared" si="4"/>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="F24" s="23"/>
+      <c r="G24" s="5">
+        <v>3.74</v>
+      </c>
+      <c r="H24" s="11">
+        <v>3.34</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="5"/>
+        <v>0.10695187165775411</v>
+      </c>
+      <c r="J24" s="5">
+        <v>3.33</v>
+      </c>
+      <c r="K24" s="11">
+        <v>2.54</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" si="6"/>
+        <v>0.23723723723723725</v>
+      </c>
+      <c r="M24" s="5">
+        <v>2.37</v>
+      </c>
+      <c r="N24" s="11">
+        <v>1.51</v>
+      </c>
+      <c r="O24" s="6">
+        <f t="shared" si="7"/>
+        <v>0.3628691983122363</v>
+      </c>
+      <c r="P24" s="5">
+        <v>3.46</v>
+      </c>
+      <c r="Q24" s="11">
+        <v>2.9</v>
+      </c>
+      <c r="R24" s="6">
+        <f t="shared" si="8"/>
+        <v>0.16184971098265899</v>
+      </c>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+    </row>
+    <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="7">
+        <v>2</v>
+      </c>
+      <c r="D25" s="8">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="F25" s="24"/>
+      <c r="G25" s="7">
+        <v>3.67</v>
+      </c>
+      <c r="H25" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="I25" s="8">
+        <f t="shared" si="5"/>
+        <v>0.15531335149863756</v>
+      </c>
+      <c r="J25" s="7">
+        <v>2.71</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="L25" s="8">
+        <f t="shared" si="6"/>
+        <v>0.2988929889298893</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1.91</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="O25" s="8">
+        <f t="shared" si="7"/>
+        <v>0.39267015706806285</v>
+      </c>
+      <c r="P25" s="7">
+        <v>3.34</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>2.67</v>
+      </c>
+      <c r="R25" s="8">
+        <f t="shared" si="8"/>
+        <v>0.20059880239520958</v>
+      </c>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+    </row>
+    <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="14">
+        <v>250</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="14">
+        <v>35</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26" s="14">
+        <v>20</v>
+      </c>
+      <c r="O26" s="9"/>
+      <c r="P26" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q26" s="14">
         <v>100</v>
       </c>
-      <c r="M11" t="s">
-        <v>9</v>
-      </c>
-      <c r="N11">
-        <v>150</v>
-      </c>
-      <c r="O11" s="3"/>
-      <c r="P11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>10</v>
-      </c>
-      <c r="S11" t="s">
-        <v>9</v>
-      </c>
-      <c r="T11" s="3">
-        <v>200</v>
-      </c>
+      <c r="S26" s="16"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="17"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="J13" s="2">
-        <v>3.35</v>
-      </c>
-      <c r="K13" s="2">
-        <v>3.58</v>
-      </c>
-      <c r="L13" s="2">
-        <f>ABS(J13-K13)/J13</f>
-        <v>6.8656716417910435E-2</v>
-      </c>
-      <c r="M13" s="3">
-        <f>3.61*0.667</f>
-        <v>2.40787</v>
-      </c>
-      <c r="N13">
-        <f>N7*0.667</f>
-        <v>2.4679000000000002</v>
-      </c>
-      <c r="O13">
-        <f>ABS(M13-N13)/M13</f>
-        <v>2.4930747922437779E-2</v>
-      </c>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
     </row>
-    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="J14" s="2">
-        <v>3.22</v>
-      </c>
-      <c r="K14" s="2">
-        <v>3.63</v>
-      </c>
-      <c r="L14" s="2">
-        <f t="shared" ref="L14:L16" si="5">ABS(J14-K14)/J14</f>
-        <v>0.12732919254658376</v>
-      </c>
-      <c r="M14" s="3">
-        <f>3.33 * 0.667</f>
-        <v>2.2211100000000004</v>
-      </c>
-      <c r="N14">
-        <f t="shared" ref="N14:N16" si="6">N8*0.667</f>
-        <v>2.39453</v>
-      </c>
-      <c r="O14">
-        <f t="shared" ref="O14:O16" si="7">ABS(M14-N14)/M14</f>
-        <v>7.8078078078077928E-2</v>
-      </c>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="J15" s="2">
-        <v>3.22</v>
-      </c>
-      <c r="K15" s="2">
-        <v>3.84</v>
-      </c>
-      <c r="L15" s="2">
-        <f t="shared" si="5"/>
-        <v>0.19254658385093157</v>
-      </c>
-      <c r="M15" s="3">
-        <f>3.3*0.667</f>
-        <v>2.2010999999999998</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="6"/>
-        <v>2.34117</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="7"/>
-        <v>6.3636363636363699E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="J16" s="2">
-        <v>2.83</v>
-      </c>
-      <c r="K16" s="2">
-        <v>3.54</v>
-      </c>
-      <c r="L16" s="2">
-        <f t="shared" si="5"/>
-        <v>0.25088339222614842</v>
-      </c>
-      <c r="M16" s="3">
-        <f>3.15 *0.667</f>
-        <v>2.1010499999999999</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="6"/>
-        <v>2.1810900000000002</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="7"/>
-        <v>3.8095238095238258E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>2</v>
-      </c>
-      <c r="I20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
-        <v>1</v>
-      </c>
-      <c r="K20" t="s">
-        <v>2</v>
-      </c>
-      <c r="L20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M20" t="s">
-        <v>1</v>
-      </c>
-      <c r="N20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>5</v>
-      </c>
-      <c r="B22">
-        <f>A28/A22</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="C22">
-        <v>4.51</v>
-      </c>
-      <c r="D22">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E22">
-        <f>ABS(C22-D22)/C22</f>
-        <v>9.0909090909090939E-2</v>
-      </c>
-      <c r="F22">
-        <v>3.71</v>
-      </c>
-      <c r="G22">
-        <v>3.24</v>
-      </c>
-      <c r="H22">
-        <f>ABS(F22-G22)/F22</f>
-        <v>0.12668463611859831</v>
-      </c>
-      <c r="I22">
-        <v>2.8</v>
-      </c>
-      <c r="J22">
-        <v>2.16</v>
-      </c>
-      <c r="K22">
-        <f>ABS(I22-J22)/I22</f>
-        <v>0.22857142857142848</v>
-      </c>
-      <c r="L22">
-        <v>3.7</v>
-      </c>
-      <c r="M22">
-        <v>3.17</v>
-      </c>
-      <c r="N22">
-        <f>ABS(L22-M22)/L22</f>
-        <v>0.14324324324324331</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>4</v>
-      </c>
-      <c r="B23">
-        <f>A28/4</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C23">
-        <v>4.37</v>
-      </c>
-      <c r="D23">
-        <v>3.96</v>
-      </c>
-      <c r="E23">
-        <f t="shared" ref="E23:E25" si="8">ABS(C23-D23)/C23</f>
-        <v>9.3821510297482869E-2</v>
-      </c>
-      <c r="F23">
-        <v>3.53</v>
-      </c>
-      <c r="G23">
-        <v>3.01</v>
-      </c>
-      <c r="H23">
-        <f t="shared" ref="H23:H25" si="9">ABS(F23-G23)/F23</f>
-        <v>0.1473087818696884</v>
-      </c>
-      <c r="I23">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="J23">
-        <v>1.57</v>
-      </c>
-      <c r="K23">
-        <f t="shared" ref="K23:K25" si="10">ABS(I23-J23)/I23</f>
-        <v>0.23414634146341454</v>
-      </c>
-      <c r="L23">
-        <v>3.51</v>
-      </c>
-      <c r="M23">
-        <v>2.98</v>
-      </c>
-      <c r="N23">
-        <f t="shared" ref="N23:N25" si="11">ABS(L23-M23)/L23</f>
-        <v>0.15099715099715094</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24">
-        <f>A28/A24</f>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="C24">
-        <v>3.74</v>
-      </c>
-      <c r="D24">
-        <v>3.34</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="8"/>
-        <v>0.10695187165775411</v>
-      </c>
-      <c r="F24">
-        <v>3.33</v>
-      </c>
-      <c r="G24">
-        <v>2.54</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="9"/>
-        <v>0.23723723723723725</v>
-      </c>
-      <c r="I24">
-        <v>2.37</v>
-      </c>
-      <c r="J24">
-        <v>1.51</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="10"/>
-        <v>0.3628691983122363</v>
-      </c>
-      <c r="L24">
-        <v>3.46</v>
-      </c>
-      <c r="M24">
-        <v>2.9</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="11"/>
-        <v>0.16184971098265899</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25">
-        <f>A28/A25</f>
-        <v>0.01</v>
-      </c>
-      <c r="C25">
-        <v>3.67</v>
-      </c>
-      <c r="D25">
-        <v>3.1</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="8"/>
-        <v>0.15531335149863756</v>
-      </c>
-      <c r="F25">
-        <v>2.71</v>
-      </c>
-      <c r="G25">
-        <v>1.9</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="9"/>
-        <v>0.2988929889298893</v>
-      </c>
-      <c r="I25">
-        <v>1.91</v>
-      </c>
-      <c r="J25">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="10"/>
-        <v>0.39267015706806285</v>
-      </c>
-      <c r="L25">
-        <v>3.34</v>
-      </c>
-      <c r="M25">
-        <v>2.67</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="11"/>
-        <v>0.20059880239520958</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2">
-        <v>250</v>
-      </c>
-      <c r="F26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="2">
-        <v>35</v>
-      </c>
-      <c r="I26" t="s">
-        <v>9</v>
-      </c>
-      <c r="J26" s="2">
-        <v>20</v>
-      </c>
-      <c r="L26" t="s">
-        <v>9</v>
-      </c>
-      <c r="M26" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="L28">
-        <v>2.96</v>
-      </c>
-      <c r="M28">
-        <v>2.44</v>
-      </c>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
